--- a/medicine/Pharmacie/Lédipasvir/Lédipasvir.xlsx
+++ b/medicine/Pharmacie/Lédipasvir/Lédipasvir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9dipasvir</t>
+          <t>Lédipasvir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lédipasvir est une molécule utilisée comme médicament en cours de test contre l'hépatite C.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9dipasvir</t>
+          <t>Lédipasvir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un inhibiteur de la NS5A, enzyme viral intervenant dans la réplication et l'assemblage du virus de l'hépatite C.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9dipasvir</t>
+          <t>Lédipasvir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été testé contre le génotype 1 du virus de l'hépatite C[2].
-En association avec le sofosbuvir et éventuellement la ribavirine, il entraîne une bonne réponse sur la virémie évaluée au troisième mois[3],[4]. La cure, de 12 semaines, peut être raccourcie à 8 semaines dans les formes sans cirrhose[5]. Il serait également efficace (avec le même type d'association, sur les formes résistantes à l'interféron et à la ribavirine[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été testé contre le génotype 1 du virus de l'hépatite C.
+En association avec le sofosbuvir et éventuellement la ribavirine, il entraîne une bonne réponse sur la virémie évaluée au troisième mois,. La cure, de 12 semaines, peut être raccourcie à 8 semaines dans les formes sans cirrhose. Il serait également efficace (avec le même type d'association, sur les formes résistantes à l'interféron et à la ribavirine.
 Le Sofosled, générique de la combinaison Lédipasvir/Sofosbuvir, produit par les Laboratoires BEKER est aussi utilisé dans un traitement de 12 semaines avec une efficacité prouvée de plus de 95%. Ce générique a été soumis à des tests de bioéquivalence In vivo et in vitro.
 Prix
 Le Sofosled accessible aux patients en Algérie est mis à disposition dans tous les centres de traitements dans le pays et pris en charge par le Ministère de la Santé, de la population et de la réforme hospitalière.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9dipasvir</t>
+          <t>Lédipasvir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Autre inhibiteur de la NS5a</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le daclatasvir est un autre inhibiteur de la NS5a.
 </t>
